--- a/biology/Médecine/Muscle_quatrième_fibulaire/Muscle_quatrième_fibulaire.xlsx
+++ b/biology/Médecine/Muscle_quatrième_fibulaire/Muscle_quatrième_fibulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_quatri%C3%A8me_fibulaire</t>
+          <t>Muscle_quatrième_fibulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle quatrième fibulaire (en latin Musculum Peroneus Quartus) est un muscle surnuméraire[1] de la loge latérale de la jambe qui s'étend de la face latérale de l'os fibula au premier métatarsien du pied.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle quatrième fibulaire (en latin Musculum Peroneus Quartus) est un muscle surnuméraire de la loge latérale de la jambe qui s'étend de la face latérale de l'os fibula au premier métatarsien du pied.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_quatri%C3%A8me_fibulaire</t>
+          <t>Muscle_quatrième_fibulaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle quatrième fibulaire a pour origine le corps musculaire du muscle court fibulaire.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_quatri%C3%A8me_fibulaire</t>
+          <t>Muscle_quatrième_fibulaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle quatrième fibulaire a pour terminaison le tendon du muscle long fibulaire.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_quatri%C3%A8me_fibulaire</t>
+          <t>Muscle_quatrième_fibulaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Tout comme les muscles court et long fibulaires, il est fléchisseur plantaire du pied sur la jambe, abducteur et rotateur latéral du pied.
 </t>
